--- a/info/pins.xlsx
+++ b/info/pins.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A81C7-9971-4684-AFD9-F0B2F6D07493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53213863-3D94-4788-987B-2EBEE19F7D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="17085" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12975" yWindow="1815" windowWidth="15585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RELEASE" sheetId="2" r:id="rId1"/>
     <sheet name="PROTO" sheetId="1" r:id="rId2"/>
+    <sheet name="RP2040" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="194">
   <si>
     <t>Pin#</t>
   </si>
@@ -357,13 +358,259 @@
   </si>
   <si>
     <t xml:space="preserve">OUT </t>
+  </si>
+  <si>
+    <t>IOVDD</t>
+  </si>
+  <si>
+    <t>GPIO0</t>
+  </si>
+  <si>
+    <t>GPIO1</t>
+  </si>
+  <si>
+    <t>GPIO2</t>
+  </si>
+  <si>
+    <t>GPIO3</t>
+  </si>
+  <si>
+    <t>GPIO4</t>
+  </si>
+  <si>
+    <t>GPIO5</t>
+  </si>
+  <si>
+    <t>GPIO6</t>
+  </si>
+  <si>
+    <t>GPIO7</t>
+  </si>
+  <si>
+    <t>GPIO8</t>
+  </si>
+  <si>
+    <t>GPIO9</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>GPIO11</t>
+  </si>
+  <si>
+    <t>GPIO12</t>
+  </si>
+  <si>
+    <t>GPIO13</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
+  </si>
+  <si>
+    <t>GPIO16</t>
+  </si>
+  <si>
+    <t>GPIO17</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>GPIO20</t>
+  </si>
+  <si>
+    <t>GPIO21</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO27</t>
+  </si>
+  <si>
+    <t>GPIO28</t>
+  </si>
+  <si>
+    <t>GPIO29</t>
+  </si>
+  <si>
+    <t>QSPI_CSN</t>
+  </si>
+  <si>
+    <t>QSPI_SD1</t>
+  </si>
+  <si>
+    <t>QSPI_SD2</t>
+  </si>
+  <si>
+    <t>QSPI_SD0</t>
+  </si>
+  <si>
+    <t>QSPI_SCLK</t>
+  </si>
+  <si>
+    <t>QSPI_SD3</t>
+  </si>
+  <si>
+    <t>TESTEN</t>
+  </si>
+  <si>
+    <t>XIN</t>
+  </si>
+  <si>
+    <t>XOUT</t>
+  </si>
+  <si>
+    <t>DVDD</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>ADC_AVDD</t>
+  </si>
+  <si>
+    <t>VREG_VIN</t>
+  </si>
+  <si>
+    <t>VREG_VOUT</t>
+  </si>
+  <si>
+    <t>USB_DM</t>
+  </si>
+  <si>
+    <t>USB_DP</t>
+  </si>
+  <si>
+    <t>USB_VDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Panel Anode Store Clock </t>
+  </si>
+  <si>
+    <t>Front Panel Anode Shift Clock (SPI1 CLK)</t>
+  </si>
+  <si>
+    <t>Front Panel Anode Data (SPI1 TX)</t>
+  </si>
+  <si>
+    <t>(spare)</t>
+  </si>
+  <si>
+    <t>ENC1</t>
+  </si>
+  <si>
+    <t>ENC2</t>
+  </si>
+  <si>
+    <t>OFF_SW</t>
+  </si>
+  <si>
+    <t>SYNCOUT</t>
+  </si>
+  <si>
+    <t>I2C0DSDA</t>
+  </si>
+  <si>
+    <t>I2C0SCL</t>
+  </si>
+  <si>
+    <t>MIDITX</t>
+  </si>
+  <si>
+    <t>MIDIRX</t>
+  </si>
+  <si>
+    <t>AUXOUT</t>
+  </si>
+  <si>
+    <t>AUXIN</t>
+  </si>
+  <si>
+    <t>D_ENA</t>
+  </si>
+  <si>
+    <t>SYNCIN</t>
+  </si>
+  <si>
+    <t>I2C1SDA</t>
+  </si>
+  <si>
+    <t>I2C1SCL</t>
+  </si>
+  <si>
+    <t>KEY_READ1</t>
+  </si>
+  <si>
+    <t>KEY_READ2</t>
+  </si>
+  <si>
+    <t>GATE1</t>
+  </si>
+  <si>
+    <t>GATE2</t>
+  </si>
+  <si>
+    <t>GATE3</t>
+  </si>
+  <si>
+    <t>GATE4</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>D_KDT</t>
+  </si>
+  <si>
+    <t>D_KCK</t>
+  </si>
+  <si>
+    <t>D_ADT</t>
+  </si>
+  <si>
+    <t>D_ARK</t>
+  </si>
+  <si>
+    <t>PWR_CTRL</t>
+  </si>
+  <si>
+    <t>GPIO23</t>
+  </si>
+  <si>
+    <t>GPIO24</t>
+  </si>
+  <si>
+    <t>GPIO25</t>
+  </si>
+  <si>
+    <t>GPIO26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +625,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +650,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +678,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE48B6-A155-4842-8DF9-C5EF8E93AF8B}">
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,37 +1131,37 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+    <row r="15" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+    <row r="16" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -907,25 +1182,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1050,7 +1325,7 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1123,7 +1398,7 @@
         <v>83</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>93</v>
@@ -1338,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -1398,15 +1673,15 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1516,7 +1791,7 @@
       <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -1562,7 +1837,7 @@
       <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -1574,7 +1849,7 @@
       <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -1592,7 +1867,7 @@
       <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -1854,15 +2129,15 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1895,32 +2170,32 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1978,4 +2253,665 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAC6444-2DB4-49E3-B435-3C955B2C9BFA}">
+  <dimension ref="B1:F58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>51</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>52</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>53</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>54</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>55</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>56</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>